--- a/Web Sc/full_community_1 FULL.xlsx
+++ b/Web Sc/full_community_1 FULL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Web Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F0B5C0-6012-4B9A-B806-EFD5538327D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA4D4A-C4CA-481D-9D7C-17C786F23713}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_community_1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="68">
   <si>
     <t>Gun</t>
   </si>
@@ -228,6 +228,12 @@
   <si>
     <t>Statrak</t>
   </si>
+  <si>
+    <t>Freq/125.12</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
 </sst>
 </file>
 
@@ -236,7 +242,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -722,7 +728,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1082,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1606,36 +1612,36 @@
         <v>13</v>
       </c>
       <c r="L15" s="1">
-        <f>AVERAGE(F20:F21)</f>
-        <v>1.7650000000000001</v>
+        <f>SUMPRODUCT(F20:F21,E20:E21)/SUM(E20:E21)</f>
+        <v>1.7404285714285714</v>
       </c>
       <c r="M15" s="1">
-        <f>AVERAGE(F24:F25)</f>
-        <v>3.2</v>
+        <f>SUMPRODUCT(F24:F25,E24:E25)/SUM(E24:E25)</f>
+        <v>3.2124267782426776</v>
       </c>
       <c r="N15" s="1">
-        <f>AVERAGE(F27:F28)</f>
-        <v>4.5999999999999996</v>
+        <f>SUMPRODUCT(F27:F28,E27:E28)/SUM(E27:E28)</f>
+        <v>4.7436585365853663</v>
       </c>
       <c r="O15" s="1">
-        <f>AVERAGE(F32:F33)</f>
-        <v>1.8049999999999999</v>
+        <f>SUMPRODUCT(F32:F33,E32:E33)/SUM(E32:E33)</f>
+        <v>1.7891874999999999</v>
       </c>
       <c r="P15" s="1">
         <f>AVERAGE(L15:O15)</f>
-        <v>2.8424999999999998</v>
+        <v>2.8714253465641537</v>
       </c>
       <c r="Q15" s="1">
         <f>P15/1.15</f>
-        <v>2.4717391304347824</v>
+        <v>2.49689160570796</v>
       </c>
       <c r="R15" s="1">
         <f>Q15-J15</f>
-        <v>-2.8260869565217561E-2</v>
+        <v>-3.1083942920400176E-3</v>
       </c>
       <c r="S15" s="2">
         <f>R15/J15</f>
-        <v>-1.1304347826087024E-2</v>
+        <v>-1.243357716816007E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1671,36 +1677,36 @@
         <v>17</v>
       </c>
       <c r="L16" s="1">
-        <f>AVERAGE(F21:F22)</f>
-        <v>3.4299999999999997</v>
+        <f>SUMPRODUCT(F21:F22,E21:E22)/SUM(E21:E22)</f>
+        <v>2.8053846153846154</v>
       </c>
       <c r="M16" s="1">
-        <f>AVERAGE(F25:F26)</f>
-        <v>3.86</v>
+        <f>SUMPRODUCT(F25:F26,E25:E26)/SUM(E25:E26)</f>
+        <v>3.9216721311475409</v>
       </c>
       <c r="N16" s="1">
-        <f>AVERAGE(F28:F29)</f>
-        <v>5.9249999999999998</v>
+        <f>SUMPRODUCT(F28:F29,E28:E29)/SUM(E28:E29)</f>
+        <v>5.9533125</v>
       </c>
       <c r="O16" s="1">
-        <f>AVERAGE(F33:F34)</f>
-        <v>2.1799999999999997</v>
+        <f>SUMPRODUCT(F33:F34,E33:E34)/SUM(E33:E34)</f>
+        <v>2.1640000000000001</v>
       </c>
       <c r="P16" s="1">
         <f>AVERAGE(L16:O16)</f>
-        <v>3.8487499999999999</v>
+        <v>3.7110923116330388</v>
       </c>
       <c r="Q16" s="1">
         <f>P16/1.15</f>
-        <v>3.3467391304347829</v>
+        <v>3.2270367927243817</v>
       </c>
       <c r="R16" s="1">
         <f>Q16-J16</f>
-        <v>0.24673913043478279</v>
+        <v>0.12703679272438162</v>
       </c>
       <c r="S16" s="2">
         <f>R16/J16</f>
-        <v>7.9593267882187999E-2</v>
+        <v>4.0979610556252134E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2439,7 +2445,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>60.35</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>95.96</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2560,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -2577,7 +2583,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -2692,7 +2698,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2737,8 +2743,36 @@
       <c r="G61" s="1">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L61" t="str">
+        <f>A77</f>
+        <v>StatTrak™ FAMAS</v>
+      </c>
+      <c r="M61" t="str">
+        <f>A82</f>
+        <v>StatTrak™ MP9</v>
+      </c>
+      <c r="N61" t="str">
+        <f>A86</f>
+        <v>StatTrak™ Nova</v>
+      </c>
+      <c r="O61" t="str">
+        <f>A89</f>
+        <v>StatTrak™ AWP</v>
+      </c>
+      <c r="P61" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>61</v>
+      </c>
+      <c r="R61" t="s">
+        <v>63</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2760,8 +2794,50 @@
       <c r="G62" s="1">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J62" s="1">
+        <f>F62*10</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K62" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="1">
+        <f>F73</f>
+        <v>3.59</v>
+      </c>
+      <c r="M62" s="1">
+        <f>F77</f>
+        <v>5.81</v>
+      </c>
+      <c r="N62" s="1">
+        <f>F80</f>
+        <v>7.15</v>
+      </c>
+      <c r="O62" s="1">
+        <f>F85</f>
+        <v>4.8</v>
+      </c>
+      <c r="P62" s="1">
+        <f>AVERAGE(L62:O62)</f>
+        <v>5.3374999999999995</v>
+      </c>
+      <c r="Q62" s="1">
+        <f>P62/1.15</f>
+        <v>4.6413043478260869</v>
+      </c>
+      <c r="R62" s="1">
+        <f>Q62-J62</f>
+        <v>-0.45869565217391273</v>
+      </c>
+      <c r="S62" s="2">
+        <f>R62/J62</f>
+        <v>-8.9940323955669171E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2783,8 +2859,50 @@
       <c r="G63" s="1">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>59</v>
+      </c>
+      <c r="J63" s="1">
+        <f>F63*10</f>
+        <v>7.4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>13</v>
+      </c>
+      <c r="L63" s="1">
+        <f>L62</f>
+        <v>3.59</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" ref="M63:O63" si="1">M62</f>
+        <v>5.81</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="1"/>
+        <v>7.15</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="P63" s="1">
+        <f>AVERAGE(L63:O63)</f>
+        <v>5.3374999999999995</v>
+      </c>
+      <c r="Q63" s="1">
+        <f>P63/1.15</f>
+        <v>4.6413043478260869</v>
+      </c>
+      <c r="R63" s="1">
+        <f>Q63-J63</f>
+        <v>-2.7586956521739134</v>
+      </c>
+      <c r="S63" s="2">
+        <f>R63/J63</f>
+        <v>-0.37279670975323154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2806,8 +2924,51 @@
       <c r="G64" s="1">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>59</v>
+      </c>
+      <c r="J64" s="1">
+        <f>F64*10</f>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="K64" t="str">
+        <f>C64</f>
+        <v>Field-Tested</v>
+      </c>
+      <c r="L64" s="1">
+        <f>SUMPRODUCT(F73:F74,E73:E74)/SUM(E73:E74)</f>
+        <v>3.934324324324324</v>
+      </c>
+      <c r="M64" s="1">
+        <f>SUMPRODUCT(F77:F78,E77:E78)/SUM(E77:E78)</f>
+        <v>6.5915602836879428</v>
+      </c>
+      <c r="N64" s="1">
+        <f>SUMPRODUCT(F80:F81,E80:E81)/SUM(E80:E81)</f>
+        <v>8.2694117647058825</v>
+      </c>
+      <c r="O64" s="1">
+        <f>SUMPRODUCT(F85:F86,E85:E86)/SUM(E85:E86)</f>
+        <v>4.6245161290322585</v>
+      </c>
+      <c r="P64" s="1">
+        <f>AVERAGE(L64:O64)</f>
+        <v>5.8549531254376017</v>
+      </c>
+      <c r="Q64" s="1">
+        <f>P64/1.15</f>
+        <v>5.0912635873370453</v>
+      </c>
+      <c r="R64" s="1">
+        <f>Q64-J64</f>
+        <v>-0.60873641266295397</v>
+      </c>
+      <c r="S64" s="2">
+        <f>R64/J64</f>
+        <v>-0.10679586187069369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2830,7 +2991,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2852,8 +3013,51 @@
       <c r="G66" s="1">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>59</v>
+      </c>
+      <c r="J66" s="1">
+        <f>F66*10</f>
+        <v>10.5</v>
+      </c>
+      <c r="K66" t="str">
+        <f>C66</f>
+        <v>Factory New</v>
+      </c>
+      <c r="L66" s="1">
+        <f>F75</f>
+        <v>29.96</v>
+      </c>
+      <c r="M66" s="1">
+        <f>F79</f>
+        <v>9.61</v>
+      </c>
+      <c r="N66" s="1">
+        <f>F82</f>
+        <v>14.1</v>
+      </c>
+      <c r="O66" s="1">
+        <f>F87</f>
+        <v>8.85</v>
+      </c>
+      <c r="P66" s="1">
+        <f>AVERAGE(L66:O66)</f>
+        <v>15.63</v>
+      </c>
+      <c r="Q66" s="1">
+        <f>P66/1.15</f>
+        <v>13.591304347826089</v>
+      </c>
+      <c r="R66" s="1">
+        <f>Q66-J66</f>
+        <v>3.0913043478260889</v>
+      </c>
+      <c r="S66" s="2">
+        <f>R66/J66</f>
+        <v>0.29440993788819891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -2876,7 +3080,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -2899,7 +3103,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -2921,8 +3125,50 @@
       <c r="G69" s="1">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="1">
+        <f>F69*10</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="1">
+        <f>SUMPRODUCT(F74:F75,E74:E75)/SUM(E74:E75)</f>
+        <v>9.3961538461538474</v>
+      </c>
+      <c r="M69" s="1">
+        <f>SUMPRODUCT(F78:F79,E78:E79)/SUM(E78:E79)</f>
+        <v>8.8284397163120563</v>
+      </c>
+      <c r="N69" s="1">
+        <f>SUMPRODUCT(F81:F82,E81:E82)/SUM(E81:E82)</f>
+        <v>11.756326530612244</v>
+      </c>
+      <c r="O69" s="1">
+        <f>SUMPRODUCT(F86:F87,E86:E87)/SUM(E86:E87)</f>
+        <v>6.620158730158729</v>
+      </c>
+      <c r="P69" s="1">
+        <f>AVERAGE(L69:O69)</f>
+        <v>9.1502697058092188</v>
+      </c>
+      <c r="Q69" s="1">
+        <f>P69/1.15</f>
+        <v>7.9567562659210607</v>
+      </c>
+      <c r="R69" s="1">
+        <f>Q69-J69</f>
+        <v>-0.24324373407893862</v>
+      </c>
+      <c r="S69" s="2">
+        <f>R69/J69</f>
+        <v>-2.9663870009626662E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -2945,7 +3191,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2968,7 +3214,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -2991,7 +3237,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -3014,7 +3260,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -3037,7 +3283,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -3060,7 +3306,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -3083,7 +3329,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>46</v>
       </c>
@@ -3106,7 +3352,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>46</v>
       </c>
@@ -3129,7 +3375,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>46</v>
       </c>
@@ -3152,7 +3398,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>47</v>
       </c>
@@ -3810,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECD30C6-3D69-4CC2-A37B-D8F7686DFA5D}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3842,6 +4088,12 @@
       <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
